--- a/Vergleich_Algorithmen.xlsx
+++ b/Vergleich_Algorithmen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f24c0f25001712a2/Dokumente/Virginia/Studium/Master/Semester2/IntelligenteRobotik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_21BD0A0794540E6F3C884F0C7348F27A60DB3B9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D13D51-B3F9-47E2-A433-348F8E099828}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D1CCA4-F3EC-4254-9F41-1F517E1D27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="21">
   <si>
     <t>Map 1 (6*6):</t>
   </si>
@@ -103,12 +103,16 @@
   <si>
     <t>Map 9 (96*96):</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -147,10 +151,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -158,9 +164,14 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -441,7 +452,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1054,3445 +1065,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Python-Speichernutzung</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Brushfire</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$D$3,Tabelle1!$D$10,Tabelle1!$D$17,Tabelle1!$D$24,Tabelle1!$D$31,Tabelle1!$D$38,Tabelle1!$D$45,Tabelle1!$D$52,Tabelle1!$D$59)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.3919999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3919999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3839999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5839999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2080000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1663999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6783999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.131200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5568E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B399-42D5-BAB2-D3C83375112E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Wavefront</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$D$4,Tabelle1!$D$11,Tabelle1!$D$18,Tabelle1!$D$25,Tabelle1!$D$32,Tabelle1!$D$39,Tabelle1!$D$46,Tabelle1!$D$53,Tabelle1!$D$60)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.952E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.952E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6959999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1623999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7528000000000019E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4408000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23257599999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.27771200000000007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.15564</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B399-42D5-BAB2-D3C83375112E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>A* (Manhattan)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$D$5,Tabelle1!$D$12,Tabelle1!$D$19,Tabelle1!$D$26,Tabelle1!$D$33,Tabelle1!$D$40,Tabelle1!$D$47,Tabelle1!$D$54,Tabelle1!$D$61)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.3120000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8880000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6719999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6639999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0024000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2239999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21818399999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.41659199999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1118079999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B399-42D5-BAB2-D3C83375112E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A* (Airplane)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$D$6,Tabelle1!$D$13,Tabelle1!$D$20,Tabelle1!$D$27,Tabelle1!$D$34,Tabelle1!$D$41,Tabelle1!$D$48,Tabelle1!$D$55,Tabelle1!$D$62)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.3360000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9120000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4799999999999988E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.704E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2311999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2959999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25542400000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.41688000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6700960000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B399-42D5-BAB2-D3C83375112E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="662053423"/>
-        <c:axId val="662053903"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="662053423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Map</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662053903"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="662053903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Speichernutzung in MB</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662053423"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Java-Laufzeit</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Brushfire</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$E$3,Tabelle1!$E$10,Tabelle1!$E$17,Tabelle1!$E$24,Tabelle1!$E$31,Tabelle1!$E$38,Tabelle1!$E$45,Tabelle1!$E$52,Tabelle1!$E$59)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.3679999999999948E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2659999999999943E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14954999999999957</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13591999999999949</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46569999999999923</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43774999999999953</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3054199999999969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2510699999999939</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.971639999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8A1-4C4C-A8E4-36E98A5358B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Wavefront</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$E$4,Tabelle1!$E$11,Tabelle1!$E$18,Tabelle1!$E$25,Tabelle1!$E$32,Tabelle1!$E$39,Tabelle1!$E$46,Tabelle1!$E$53,Tabelle1!$E$60)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.8839499999999969</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.445170000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6571800000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7007399000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3959800000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4280901000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4912599999999987</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8514699999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.43844</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E8A1-4C4C-A8E4-36E98A5358B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>A* (Manhattan)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$E$5,Tabelle1!$E$12,Tabelle1!$E$19,Tabelle1!$E$26,Tabelle1!$E$33,Tabelle1!$E$40,Tabelle1!$E$47,Tabelle1!$E$54,Tabelle1!$E$61)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10.372449799999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.801360000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.211770000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.652460000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.943640000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.3793398</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.870560000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.032409999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.922239999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E8A1-4C4C-A8E4-36E98A5358B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A* (Airplane)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$E$6,Tabelle1!$E$13,Tabelle1!$E$20,Tabelle1!$E$27,Tabelle1!$E$34,Tabelle1!$E$41,Tabelle1!$E$48,Tabelle1!$E$55,Tabelle1!$E$62)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9.7464099999999654</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.79749</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.67407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.932910000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.35525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.470700000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.132219999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.524809999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.608510000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E8A1-4C4C-A8E4-36E98A5358B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="624485647"/>
-        <c:axId val="624483727"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="624485647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Map</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="624483727"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="624483727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Laufzeit in MS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="624485647"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Java-Speichernutzung</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Brushfire</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$F$3,Tabelle1!$F$10,Tabelle1!$F$17,Tabelle1!$F$24,Tabelle1!$F$31,Tabelle1!$F$38,Tabelle1!$F$45,Tabelle1!$F$52,Tabelle1!$F$59)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.0786743164062502E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3487548828125E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4712524414062503E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7306518554687503E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2193298339843714E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.249389648437497E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6688537597656199E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8003845214843696E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1299743652343696E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2917-45BB-B7BA-C498A042FA1D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Wavefront</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$F$4,Tabelle1!$F$11,Tabelle1!$F$18,Tabelle1!$F$25,Tabelle1!$F$32,Tabelle1!$F$39,Tabelle1!$F$46,Tabelle1!$F$53,Tabelle1!$F$60)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.15413360595703091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1516471862792966</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15049285888671851</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16116561889648412</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19065246582031203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18953552246093713</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20726699829101553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21011352539062469</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22365036010742151</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2917-45BB-B7BA-C498A042FA1D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>A* (Manhattan)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$F$5,Tabelle1!$F$12,Tabelle1!$F$19,Tabelle1!$F$26,Tabelle1!$F$33,Tabelle1!$F$40,Tabelle1!$F$47,Tabelle1!$F$54,Tabelle1!$F$61)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.25162506103515592</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25201263427734322</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25595626831054658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30153427124023374</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30902938842773364</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30802307128906203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34588470458984288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.35881500244140574</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3841308593749986</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2917-45BB-B7BA-C498A042FA1D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A* (Airplane)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$F$6,Tabelle1!$F$13,Tabelle1!$F$20,Tabelle1!$F$27,Tabelle1!$F$34,Tabelle1!$F$41,Tabelle1!$F$48,Tabelle1!$F$55,Tabelle1!$F$62)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.25247497558593701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2529823303222648</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2636238098144531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29808502197265607</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30368957519531203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30268020629882786</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34609680175781199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.34831619262695268</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.382180786132805</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2917-45BB-B7BA-C498A042FA1D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="501988575"/>
-        <c:axId val="619119519"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="501988575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Map</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619119519"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="619119519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Speichernutzung in MB</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501988575"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>C++-Laufzeit</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Brushfire</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$G$3,Tabelle1!$G$10,Tabelle1!$G$17,Tabelle1!$G$24,Tabelle1!$G$31,Tabelle1!$G$38,Tabelle1!$G$45,Tabelle1!$G$52,Tabelle1!$G$59)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9.5999999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.01E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2248</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91979999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E1F5-4360-B3AD-B3BE73837A51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Wavefront</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$G$4,Tabelle1!$G$11,Tabelle1!$G$18,Tabelle1!$G$25,Tabelle1!$G$32,Tabelle1!$G$39,Tabelle1!$G$46,Tabelle1!$G$53,Tabelle1!$G$60)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.5699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.29E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.09E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25740000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1039000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E1F5-4360-B3AD-B3BE73837A51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>A* (Manhattan)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$G$5,Tabelle1!$G$12,Tabelle1!$G$19,Tabelle1!$G$26,Tabelle1!$G$33,Tabelle1!$G$40,Tabelle1!$G$47,Tabelle1!$G$54,Tabelle1!$G$61)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.3599999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18279999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71809999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0254000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7593999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E1F5-4360-B3AD-B3BE73837A51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A* (Airplane)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$G$6,Tabelle1!$G$13,Tabelle1!$G$20,Tabelle1!$G$27,Tabelle1!$G$34,Tabelle1!$G$41,Tabelle1!$G$48,Tabelle1!$G$55,Tabelle1!$G$62)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.07E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14460000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8266</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2334999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E1F5-4360-B3AD-B3BE73837A51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="355489023"/>
-        <c:axId val="355494303"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="355489023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Map</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355494303"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="355494303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Laufzeit in MS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355489023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>C++-Speichernutzung</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Brushfire</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$H$3,Tabelle1!$H$10,Tabelle1!$H$17,Tabelle1!$H$24,Tabelle1!$H$31,Tabelle1!$H$38,Tabelle1!$H$45,Tabelle1!$H$52,Tabelle1!$H$59)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>7.4200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.8700000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1199999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.124</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-057D-4F5D-95D6-853709D684C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Wavefront</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$H$4,Tabelle1!$H$11,Tabelle1!$H$18,Tabelle1!$H$25,Tabelle1!$H$32,Tabelle1!$H$39,Tabelle1!$H$46,Tabelle1!$H$53,Tabelle1!$H$60)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.44E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.53E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1118</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-057D-4F5D-95D6-853709D684C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>A* (Manhattan)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$H$5,Tabelle1!$H$12,Tabelle1!$H$19,Tabelle1!$H$26,Tabelle1!$H$33,Tabelle1!$H$40,Tabelle1!$H$47,Tabelle1!$H$54,Tabelle1!$H$61)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.8599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.8300000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1399999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.17580000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-057D-4F5D-95D6-853709D684C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A* (Airplane)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$H$6,Tabelle1!$H$13,Tabelle1!$H$20,Tabelle1!$H$27,Tabelle1!$H$34,Tabelle1!$H$41,Tabelle1!$H$48,Tabelle1!$H$55,Tabelle1!$H$62)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00000">
-                  <c:v>2.3439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000">
-                  <c:v>3.3300000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000">
-                  <c:v>3.1300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00000">
-                  <c:v>5.5500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00000">
-                  <c:v>5.7799999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00000">
-                  <c:v>0.16009999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-057D-4F5D-95D6-853709D684C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1632301647"/>
-        <c:axId val="1632303087"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1632301647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Map</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1632303087"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1632303087"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Speichernutzung in MB</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1632301647"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5107,7 +1683,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5722,7 +2298,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6342,7 +2918,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6957,7 +3533,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7032,9 +3608,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Python</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -7106,9 +3679,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Java</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -7180,9 +3750,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>C++</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -7577,7 +4144,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8193,7 +4760,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8805,902 +5372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Python-Laufzeit</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Brushfire</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$C$3,Tabelle1!$C$10,Tabelle1!$C$17,Tabelle1!$C$24,Tabelle1!$C$31,Tabelle1!$C$38,Tabelle1!$C$45,Tabelle1!$C$52,Tabelle1!$C$59)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.11081999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11091999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39581</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41586999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.34175</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.32335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1890300000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3470700000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.719339999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEAA-4066-922F-0D856B2CFE99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Wavefront</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$C$4,Tabelle1!$C$11,Tabelle1!$C$18,Tabelle1!$C$25,Tabelle1!$C$32,Tabelle1!$C$39,Tabelle1!$C$46,Tabelle1!$C$53,Tabelle1!$C$60)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6.2710000000000016E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9580000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35178000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7230400000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92942000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6078799999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1781400000000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35.11589</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CEAA-4066-922F-0D856B2CFE99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>A* (Manhattan)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$C$5,Tabelle1!$C$12,Tabelle1!$C$19,Tabelle1!$C$26,Tabelle1!$C$33,Tabelle1!$C$40,Tabelle1!$C$47,Tabelle1!$C$54,Tabelle1!$C$61)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8.5390000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23263000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71632999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2110400000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8834499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2918099999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.569659999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51.323549999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CEAA-4066-922F-0D856B2CFE99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>A* (Airplane)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Tabelle1!$C$6,Tabelle1!$C$13,Tabelle1!$C$20,Tabelle1!$C$27,Tabelle1!$C$34,Tabelle1!$C$41,Tabelle1!$C$48,Tabelle1!$C$55,Tabelle1!$C$62)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.10921</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12889</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29270000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87037999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9519100000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2439300000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.47645</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.954830000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80.890299999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CEAA-4066-922F-0D856B2CFE99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="19420511"/>
-        <c:axId val="19428671"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="19420511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Map</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="19428671"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="19428671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Laufzeit in</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>MS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="19420511"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10020,46 +5692,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -10581,7 +6213,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11102,7 +6734,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11623,7 +7255,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12144,7 +7776,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12665,7 +8297,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13186,7 +8818,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13707,3133 +9339,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17644,227 +10150,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32755B62-0257-E735-4538-1733EC28A7EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC375EFB-B7CE-FA54-95D8-98A2A65FDFBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>39513</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68088</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>144680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584B7767-5A64-78F8-81C1-41F3D1D7D891}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>39513</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68088</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Diagramm 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9105200A-D031-B4EC-1E74-0E6989C5E95A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150183</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388308</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Diagramm 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BF45CF-E43E-D033-39E0-65F7880D656F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150183</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388308</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Diagramm 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B948A84-E638-A86D-A33B-B9E7C0966013}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18200,13 +10486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -18219,12 +10505,12 @@
     <col min="9" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -18247,7 +10533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -18273,8 +10559,32 @@
       <c r="H3" s="3">
         <v>7.4200000000000002E-2</v>
       </c>
+      <c r="J3" s="7">
+        <f>(C10-C3)/C3</f>
+        <v>9.0236419418880057E-4</v>
+      </c>
+      <c r="K3" s="7">
+        <f>(D10-D3)/D3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <f>(E10-E3)/E3</f>
+        <v>0.20558608058608072</v>
+      </c>
+      <c r="M3" s="7">
+        <f>(F10-F3)/F3</f>
+        <v>6.6217732884399499E-2</v>
+      </c>
+      <c r="N3" s="7">
+        <f>(G10-G3)/G3</f>
+        <v>5.2083333333333384E-2</v>
+      </c>
+      <c r="O3" s="7">
+        <f>(H10-H3)/H3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -18300,8 +10610,32 @@
       <c r="H4" s="3">
         <v>2.7300000000000001E-2</v>
       </c>
+      <c r="J4" s="7">
+        <f>(C11-C4)/C4</f>
+        <v>0.1095519055971932</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(D11-D4)/D4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f>(E11-E4)/E4</f>
+        <v>0.11491108631333334</v>
+      </c>
+      <c r="M4" s="7">
+        <f>(F11-F4)/F4</f>
+        <v>-1.6131587023451993E-2</v>
+      </c>
+      <c r="N4" s="7">
+        <f>(G11-G4)/G4</f>
+        <v>0.12101910828025494</v>
+      </c>
+      <c r="O4" s="7">
+        <f>(H11-H4)/H4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -18327,8 +10661,32 @@
       <c r="H5" s="3">
         <v>5.8599999999999999E-2</v>
       </c>
+      <c r="J5" s="7">
+        <f>(C12-C5)/C5</f>
+        <v>0.33973533200608946</v>
+      </c>
+      <c r="K5" s="7">
+        <f>(D12-D5)/D5</f>
+        <v>0.43902439024390244</v>
+      </c>
+      <c r="L5" s="7">
+        <f>(E12-E5)/E5</f>
+        <v>4.1350906321089759E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <f>(F12-F5)/F5</f>
+        <v>1.5402807677139527E-3</v>
+      </c>
+      <c r="N5" s="7">
+        <f>(G12-G5)/G5</f>
+        <v>-0.2023809523809523</v>
+      </c>
+      <c r="O5" s="7">
+        <f>(H12-H5)/H5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -18354,14 +10712,51 @@
       <c r="H6" s="3">
         <v>2.3439999999999999E-2</v>
       </c>
+      <c r="J6" s="7">
+        <f>(C13-C6)/C6</f>
+        <v>0.1802032780880872</v>
+      </c>
+      <c r="K6" s="7">
+        <f>(D13-D6)/D6</f>
+        <v>0.4311377245508981</v>
+      </c>
+      <c r="L6" s="7">
+        <f>(E13-E6)/E6</f>
+        <v>0.10784278518962759</v>
+      </c>
+      <c r="M6" s="7">
+        <f>(F13-F6)/F6</f>
+        <v>2.0095248455825649E-3</v>
+      </c>
+      <c r="N6" s="7">
+        <f>(G13-G6)/G6</f>
+        <v>0.3354838709677419</v>
+      </c>
+      <c r="O6" s="7">
+        <f>(H13-H6)/H6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -18383,8 +10778,14 @@
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -18410,8 +10811,32 @@
       <c r="H10" s="3">
         <v>7.4200000000000002E-2</v>
       </c>
+      <c r="J10" s="5">
+        <f>(C17-C10)/C10</f>
+        <v>2.5684276956364949</v>
+      </c>
+      <c r="K10" s="5">
+        <f>(D17-D10)/D10</f>
+        <v>0.83277591973244169</v>
+      </c>
+      <c r="L10" s="5">
+        <f>(E17-E10)/E10</f>
+        <v>1.8399164451196304</v>
+      </c>
+      <c r="M10" s="5">
+        <f>(F17-F10)/F10</f>
+        <v>0.4880701754385966</v>
+      </c>
+      <c r="N10" s="5">
+        <f>(G17-G10)/G10</f>
+        <v>1.0099009900990099</v>
+      </c>
+      <c r="O10" s="5">
+        <f>(H17-H10)/H10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -18437,8 +10862,32 @@
       <c r="H11" s="3">
         <v>2.7300000000000001E-2</v>
       </c>
+      <c r="J11" s="5">
+        <f>(C18-C11)/C11</f>
+        <v>2.1279103190572002</v>
+      </c>
+      <c r="K11" s="5">
+        <f>(D18-D11)/D11</f>
+        <v>3.4549180327868849</v>
+      </c>
+      <c r="L11" s="5">
+        <f>(E18-E11)/E11</f>
+        <v>3.8935423503765602E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <f>(F18-F11)/F11</f>
+        <v>-7.6119275332422335E-3</v>
+      </c>
+      <c r="N11" s="5">
+        <f>(G18-G11)/G11</f>
+        <v>0.30113636363636359</v>
+      </c>
+      <c r="O11" s="5">
+        <f>(H18-H11)/H11</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -18464,8 +10913,32 @@
       <c r="H12" s="3">
         <v>5.8599999999999999E-2</v>
       </c>
+      <c r="J12" s="5">
+        <f>(C19-C12)/C12</f>
+        <v>1.0334790209790214</v>
+      </c>
+      <c r="K12" s="5">
+        <f>(D19-D12)/D12</f>
+        <v>2.5338983050847443</v>
+      </c>
+      <c r="L12" s="5">
+        <f>(E19-E12)/E12</f>
+        <v>-5.4584793026063325E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <f>(F19-F12)/F12</f>
+        <v>1.5648556845222834E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <f>(G19-G12)/G12</f>
+        <v>0.48507462686567165</v>
+      </c>
+      <c r="O12" s="5">
+        <f>(H19-H12)/H12</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -18491,14 +10964,51 @@
       <c r="H13" s="1">
         <v>2.3439999999999999E-2</v>
       </c>
+      <c r="J13" s="5">
+        <f>(C20-C13)/C13</f>
+        <v>1.2709286988905268</v>
+      </c>
+      <c r="K13" s="5">
+        <f>(D20-D13)/D13</f>
+        <v>2.9121338912133883</v>
+      </c>
+      <c r="L13" s="5">
+        <f>(E20-E13)/E13</f>
+        <v>-1.1430434295377854E-2</v>
+      </c>
+      <c r="M13" s="5">
+        <f>(F20-F13)/F13</f>
+        <v>4.2064121548064298E-2</v>
+      </c>
+      <c r="N13" s="5">
+        <f>(G20-G13)/G13</f>
+        <v>0.28019323671497581</v>
+      </c>
+      <c r="O13" s="5">
+        <f>(H20-H13)/H13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -18520,8 +11030,14 @@
       <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -18547,8 +11063,32 @@
       <c r="H17" s="3">
         <v>7.4200000000000002E-2</v>
       </c>
+      <c r="J17" s="7">
+        <f>(C24-C17)/C17</f>
+        <v>5.0680882241479416E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <f>(D24-D17)/D17</f>
+        <v>0.27372262773722622</v>
+      </c>
+      <c r="L17" s="7">
+        <f>(E24-E17)/E17</f>
+        <v>-9.1140086927449848E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <f>(F24-F17)/F17</f>
+        <v>4.0084885640179202E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <f>(G24-G17)/G17</f>
+        <v>-8.8669950738916245E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <f>(H24-H17)/H17</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -18574,8 +11114,32 @@
       <c r="H18" s="3">
         <v>2.7300000000000001E-2</v>
       </c>
+      <c r="J18" s="7">
+        <f t="shared" ref="J18:O18" si="0">(C25-C18)/C18</f>
+        <v>0.61633890828891769</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.3367065317387305</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>7.6999317681247514E-3</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>7.0918713942429559E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34934497816593885</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -18601,8 +11165,32 @@
       <c r="H19" s="3">
         <v>5.8599999999999999E-2</v>
       </c>
+      <c r="J19" s="7">
+        <f t="shared" ref="J19:O19" si="1">(C26-C19)/C19</f>
+        <v>2.0792675063405399</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4940047961630691</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14108132086797881</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.17806949300568914</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.78894472361809032</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -18628,14 +11216,51 @@
       <c r="H20" s="1">
         <v>2.3439999999999999E-2</v>
       </c>
+      <c r="J20" s="7">
+        <f t="shared" ref="J20:O20" si="2">(C27-C20)/C20</f>
+        <v>1.9736248718824734</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2780748663101607</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4249419387356561E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.13072116734242584</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91320754716981145</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
@@ -18657,8 +11282,14 @@
       <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -18684,8 +11315,32 @@
       <c r="H24" s="3">
         <v>7.4200000000000002E-2</v>
       </c>
+      <c r="J24" s="7">
+        <f t="shared" ref="J24:O24" si="3">(C31-C24)/C24</f>
+        <v>2.2263688171784453</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1633237822349576</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4262801648028325</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.81160734527317524</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1783783783783788</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="3"/>
+        <v>6.064690026954183E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -18711,8 +11366,32 @@
       <c r="H25" s="3">
         <v>2.7300000000000001E-2</v>
       </c>
+      <c r="J25" s="7">
+        <f t="shared" ref="J25:J27" si="4">(C32-C25)/C25</f>
+        <v>3.8980612883051915</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" ref="K25:K27" si="5">(D32-D25)/D25</f>
+        <v>4.8093599449415025</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" ref="L25:L27" si="6">(E32-E25)/E25</f>
+        <v>0.12195611660865291</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" ref="M25:M27" si="7">(F32-F25)/F25</f>
+        <v>0.18295990873070248</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25:N27" si="8">(G32-G25)/G25</f>
+        <v>1.3495145631067962</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" ref="O25:O27" si="9">(H32-H25)/H25</f>
+        <v>0.2893772893772894</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -18738,8 +11417,32 @@
       <c r="H26" s="3">
         <v>5.8599999999999999E-2</v>
       </c>
+      <c r="J26" s="7">
+        <f t="shared" si="4"/>
+        <v>2.0866220875853312</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6072115384615397</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="6"/>
+        <v>0.11080750330831433</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="7"/>
+        <v>2.4856601396159396E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="8"/>
+        <v>1.5674157303370786</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="9"/>
+        <v>0.15017064846416386</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
@@ -18765,14 +11468,51 @@
       <c r="H27" s="1">
         <v>2.3439999999999999E-2</v>
       </c>
+      <c r="J27" s="7">
+        <f t="shared" si="4"/>
+        <v>2.3915186470277359</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6568075117370893</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="6"/>
+        <v>0.13009711046738684</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="7"/>
+        <v>1.8801861246051061E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="8"/>
+        <v>1.8520710059171599</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="9"/>
+        <v>0.42064846416382273</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -18794,8 +11534,14 @@
       <c r="H30" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
@@ -18821,8 +11567,32 @@
       <c r="H31" s="3">
         <v>7.8700000000000006E-2</v>
       </c>
+      <c r="J31" s="5">
+        <f t="shared" ref="J31:O31" si="10">(C38-C31)/C31</f>
+        <v>-1.3713433948201953E-2</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="10"/>
+        <v>0.79337748344370795</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="10"/>
+        <v>-6.0017178441055925E-2</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="10"/>
+        <v>2.4652734326117438E-2</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.28231292517006801</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="10"/>
+        <v>3.1766200762388667E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -18848,8 +11618,32 @@
       <c r="H32" s="3">
         <v>3.5200000000000002E-2</v>
       </c>
+      <c r="J32" s="5">
+        <f t="shared" ref="J32:J34" si="11">(C39-C32)/C32</f>
+        <v>-0.46059290556226212</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" ref="K32:K34" si="12">(D39-D32)/D32</f>
+        <v>-0.49046321525885572</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" ref="L32:L34" si="13">(E39-E32)/E32</f>
+        <v>5.0203565364494093E-3</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" ref="M32:M34" si="14">(F39-F32)/F32</f>
+        <v>-5.8585308853419584E-3</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" ref="N32:N34" si="15">(G39-G32)/G32</f>
+        <v>-0.2314049586776859</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" ref="O32:O34" si="16">(H39-H32)/H32</f>
+        <v>-2.2727272727272787E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -18875,8 +11669,32 @@
       <c r="H33" s="3">
         <v>6.7400000000000002E-2</v>
       </c>
+      <c r="J33" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.1481610463854115</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="12"/>
+        <v>-0.12968146074903383</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="13"/>
+        <v>-4.3596716225111451E-2</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="14"/>
+        <v>-3.2563800607816147E-3</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="15"/>
+        <v>-6.4551422319474708E-2</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="16"/>
+        <v>-1.4836795252225532E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
@@ -18902,14 +11720,51 @@
       <c r="H34" s="3">
         <v>3.3300000000000003E-2</v>
       </c>
+      <c r="J34" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.23983793543841117</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="12"/>
+        <v>-0.15008345102067028</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="13"/>
+        <v>9.3442059043728556E-3</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="14"/>
+        <v>-3.3236863525362014E-3</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="15"/>
+        <v>-0.20954356846473032</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="16"/>
+        <v>-6.0060060060060108E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
@@ -18931,8 +11786,14 @@
       <c r="H37" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
@@ -18958,8 +11819,32 @@
       <c r="H38" s="3">
         <v>8.1199999999999994E-2</v>
       </c>
+      <c r="J38" s="7">
+        <f t="shared" ref="J35:O38" si="17">(C45-C38)/C38</f>
+        <v>2.9211319756678131</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="17"/>
+        <v>0.23633677991137372</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="17"/>
+        <v>1.9821130782410012</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="17"/>
+        <v>0.33573522227650132</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="17"/>
+        <v>4.3270142180094782</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="17"/>
+        <v>4.8029556650246316E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
@@ -18985,8 +11870,32 @@
       <c r="H39" s="3">
         <v>3.44E-2</v>
       </c>
+      <c r="J39" s="7">
+        <f>(C46-C39)/C39</f>
+        <v>8.2615609735103597</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" ref="J39:O39" si="18">(D46-D39)/D39</f>
+        <v>5.7593582887700521</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="18"/>
+        <v>0.47652877485335782</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="18"/>
+        <v>9.3552256589435945E-2</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6630824372759849</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="18"/>
+        <v>0.40697674418604646</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -19012,8 +11921,32 @@
       <c r="H40" s="3">
         <v>6.6400000000000001E-2</v>
       </c>
+      <c r="J40" s="7">
+        <f t="shared" ref="J40:O40" si="19">(C47-C40)/C40</f>
+        <v>3.4024582547983755</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="19"/>
+        <v>3.1765696784073505</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="19"/>
+        <v>0.36279965430789779</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="19"/>
+        <v>0.122918173441787</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" si="19"/>
+        <v>3.1994152046783619</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="19"/>
+        <v>0.32981927710843378</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
@@ -19039,14 +11972,51 @@
       <c r="H41" s="3">
         <v>3.1300000000000001E-2</v>
       </c>
+      <c r="J41" s="7">
+        <f t="shared" ref="J41:O41" si="20">(C48-C41)/C41</f>
+        <v>5.005735473031689</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="20"/>
+        <v>3.82296072507553</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="20"/>
+        <v>0.37379778200100983</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="20"/>
+        <v>0.14344048456250924</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="20"/>
+        <v>2.6229221347331584</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="20"/>
+        <v>0.77316293929712454</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -19068,8 +12038,14 @@
       <c r="H44" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
@@ -19095,8 +12071,32 @@
       <c r="H45" s="3">
         <v>8.5099999999999995E-2</v>
       </c>
+      <c r="J45" s="5">
+        <f>(C52-C45)/C45</f>
+        <v>3.0456559318408204E-2</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" ref="K45" si="21">(D52-D45)/D45</f>
+        <v>0.91577060931899712</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" ref="L45" si="22">(E52-E45)/E45</f>
+        <v>-4.1634110094837778E-2</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" ref="M45" si="23">(F52-F45)/F45</f>
+        <v>7.8815031544299238E-2</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" ref="N45" si="24">(G52-G45)/G45</f>
+        <v>7.5622775800712055E-3</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" ref="O45" si="25">(H52-H45)/H45</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
@@ -19122,8 +12122,32 @@
       <c r="H46" s="3">
         <v>4.8399999999999999E-2</v>
       </c>
+      <c r="J46" s="5">
+        <f>(C53-C46)/C46</f>
+        <v>-4.9924023104411179E-2</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" ref="J46:O46" si="26">(D53-D46)/D46</f>
+        <v>0.19406989543203138</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="26"/>
+        <v>-6.7408331454411718E-2</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="26"/>
+        <v>1.3733624373777401E-2</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="26"/>
+        <v>-1.076095311298989E-2</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="26"/>
+        <v>-6.4049586776859471E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
@@ -19149,8 +12173,32 @@
       <c r="H47" s="3">
         <v>8.8300000000000003E-2</v>
       </c>
+      <c r="J47" s="5">
+        <f t="shared" ref="J47:O47" si="27">(C54-C47)/C47</f>
+        <v>0.87771548069721794</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="27"/>
+        <v>0.90936090639093603</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="27"/>
+        <v>0.18741820069991733</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="27"/>
+        <v>3.7383260028499572E-2</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="27"/>
+        <v>0.42793482801838206</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="27"/>
+        <v>3.5107587768969328E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
@@ -19176,14 +12224,50 @@
       <c r="H48" s="3">
         <v>5.5500000000000001E-2</v>
       </c>
+      <c r="J48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" ref="J48:O52" si="28">(D55-D48)/D48</f>
+        <v>0.63210974693059374</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="28"/>
+        <v>0.19802395719877533</v>
+      </c>
+      <c r="M48" s="5">
+        <f t="shared" si="28"/>
+        <v>6.4126303908862868E-3</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="28"/>
+        <v>0.99613619898575212</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="28"/>
+        <v>4.1441441441441379E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -19205,8 +12289,14 @@
       <c r="H51" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
@@ -19232,8 +12322,32 @@
       <c r="H52" s="3">
         <v>8.5099999999999995E-2</v>
       </c>
+      <c r="J52" s="5">
+        <f t="shared" si="28"/>
+        <v>2.8748959710645265</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="28"/>
+        <v>0.86248830682881161</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="28"/>
+        <v>2.1745945470677217</v>
+      </c>
+      <c r="M52" s="5">
+        <f t="shared" si="28"/>
+        <v>0.18306636155606462</v>
+      </c>
+      <c r="N52" s="5">
+        <f t="shared" si="28"/>
+        <v>3.0609271523178805</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="28"/>
+        <v>0.45710928319623978</v>
+      </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
@@ -19259,8 +12373,32 @@
       <c r="H53" s="3">
         <v>4.53E-2</v>
       </c>
+      <c r="J53" s="5">
+        <f>(C60-C53)/C53</f>
+        <v>3.2938724453237533</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" ref="K53:K56" si="29">(D60-D53)/D53</f>
+        <v>3.1612893933283392</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" ref="L53:L56" si="30">(E60-E53)/E53</f>
+        <v>0.97011795780813825</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" ref="M53:M56" si="31">(F60-F53)/F53</f>
+        <v>6.4426289034131973E-2</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" ref="N53:N56" si="32">(G60-G53)/G53</f>
+        <v>3.2886557886557886</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" ref="O53:O56" si="33">(H60-H53)/H53</f>
+        <v>1.4679911699779251</v>
+      </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
@@ -19286,8 +12424,32 @@
       <c r="H54" s="3">
         <v>9.1399999999999995E-2</v>
       </c>
+      <c r="J54" s="5">
+        <f t="shared" ref="J53:J56" si="34">(C61-C54)/C54</f>
+        <v>2.2963821946015521</v>
+      </c>
+      <c r="K54" s="5">
+        <f t="shared" si="29"/>
+        <v>1.6688174520874142</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="30"/>
+        <v>0.54361057905663879</v>
+      </c>
+      <c r="M54" s="5">
+        <f t="shared" si="31"/>
+        <v>11.218359961386854</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="32"/>
+        <v>2.6662765749951238</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="33"/>
+        <v>0.9234135667396064</v>
+      </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
@@ -19313,14 +12475,51 @@
       <c r="H55" s="3">
         <v>5.7799999999999997E-2</v>
       </c>
+      <c r="J55" s="5">
+        <f t="shared" si="34"/>
+        <v>2.860222201754917</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="29"/>
+        <v>3.0061792362310507</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="30"/>
+        <v>0.637457788890616</v>
+      </c>
+      <c r="M55" s="5">
+        <f t="shared" si="31"/>
+        <v>11.581042394506559</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="32"/>
+        <v>2.9118074038228885</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="33"/>
+        <v>1.7698961937716264</v>
+      </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
@@ -19342,8 +12541,14 @@
       <c r="H58" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -19369,8 +12574,14 @@
       <c r="H59" s="3">
         <v>0.124</v>
       </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
@@ -19396,8 +12607,14 @@
       <c r="H60" s="3">
         <v>0.1118</v>
       </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
@@ -19423,8 +12640,14 @@
       <c r="H61" s="3">
         <v>0.17580000000000001</v>
       </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
@@ -19450,9 +12673,22 @@
       <c r="H62" s="3">
         <v>0.16009999999999999</v>
       </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Vergleich_Algorithmen.xlsx
+++ b/Vergleich_Algorithmen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D1CCA4-F3EC-4254-9F41-1F517E1D27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7EF4B9-EBD3-4292-9647-1F9F841BDCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="3570" windowWidth="25365" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="36">
   <si>
     <t>Map 1 (6*6):</t>
   </si>
@@ -106,6 +106,73 @@
   <si>
     <t xml:space="preserve">  </t>
   </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>A* Manhattan</t>
+  </si>
+  <si>
+    <t>A* Airplane</t>
+  </si>
+  <si>
+    <t>Minimaler kkk-Wert</t>
+  </si>
+  <si>
+    <t>Maximaler kkk-Wert</t>
+  </si>
+  <si>
+    <t>Durchschnittlicher kkk-Wert</t>
+  </si>
+  <si>
+    <t>Minimaler k-Wert</t>
+  </si>
+  <si>
+    <t>Maximaler k-Wert</t>
+  </si>
+  <si>
+    <t>Durchschnittlicher k-Wert</t>
+  </si>
+  <si>
+    <t>Python:</t>
+  </si>
+  <si>
+    <r>
+      <t>A Manhattan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A Airplane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>k= O(V+E)</t>
+  </si>
+  <si>
+    <t>V = Felder, E = Kanten</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +182,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +199,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +237,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,11 +248,26 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -452,7 +548,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1068,7 +1164,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1683,7 +1779,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2298,7 +2394,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2918,7 +3014,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3533,7 +3629,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4144,7 +4240,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4760,7 +4856,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10488,11 +10584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -10510,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10560,27 +10656,27 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="J3" s="7">
-        <f>(C10-C3)/C3</f>
+        <f t="shared" ref="J3:O6" si="0">(C10-C3)/C3</f>
         <v>9.0236419418880057E-4</v>
       </c>
       <c r="K3" s="7">
-        <f>(D10-D3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <f>(E10-E3)/E3</f>
+        <f t="shared" si="0"/>
         <v>0.20558608058608072</v>
       </c>
       <c r="M3" s="7">
-        <f>(F10-F3)/F3</f>
+        <f t="shared" si="0"/>
         <v>6.6217732884399499E-2</v>
       </c>
       <c r="N3" s="7">
-        <f>(G10-G3)/G3</f>
+        <f t="shared" si="0"/>
         <v>5.2083333333333384E-2</v>
       </c>
       <c r="O3" s="7">
-        <f>(H10-H3)/H3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10611,27 +10707,27 @@
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="J4" s="7">
-        <f>(C11-C4)/C4</f>
+        <f t="shared" si="0"/>
         <v>0.1095519055971932</v>
       </c>
       <c r="K4" s="7">
-        <f>(D11-D4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <f>(E11-E4)/E4</f>
+        <f t="shared" si="0"/>
         <v>0.11491108631333334</v>
       </c>
       <c r="M4" s="7">
-        <f>(F11-F4)/F4</f>
+        <f t="shared" si="0"/>
         <v>-1.6131587023451993E-2</v>
       </c>
       <c r="N4" s="7">
-        <f>(G11-G4)/G4</f>
+        <f t="shared" si="0"/>
         <v>0.12101910828025494</v>
       </c>
       <c r="O4" s="7">
-        <f>(H11-H4)/H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10662,27 +10758,27 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="J5" s="7">
-        <f>(C12-C5)/C5</f>
+        <f t="shared" si="0"/>
         <v>0.33973533200608946</v>
       </c>
       <c r="K5" s="7">
-        <f>(D12-D5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.43902439024390244</v>
       </c>
       <c r="L5" s="7">
-        <f>(E12-E5)/E5</f>
+        <f t="shared" si="0"/>
         <v>4.1350906321089759E-2</v>
       </c>
       <c r="M5" s="7">
-        <f>(F12-F5)/F5</f>
+        <f t="shared" si="0"/>
         <v>1.5402807677139527E-3</v>
       </c>
       <c r="N5" s="7">
-        <f>(G12-G5)/G5</f>
+        <f t="shared" si="0"/>
         <v>-0.2023809523809523</v>
       </c>
       <c r="O5" s="7">
-        <f>(H12-H5)/H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10713,27 +10809,27 @@
         <v>2.3439999999999999E-2</v>
       </c>
       <c r="J6" s="7">
-        <f>(C13-C6)/C6</f>
+        <f t="shared" si="0"/>
         <v>0.1802032780880872</v>
       </c>
       <c r="K6" s="7">
-        <f>(D13-D6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.4311377245508981</v>
       </c>
       <c r="L6" s="7">
-        <f>(E13-E6)/E6</f>
+        <f t="shared" si="0"/>
         <v>0.10784278518962759</v>
       </c>
       <c r="M6" s="7">
-        <f>(F13-F6)/F6</f>
+        <f t="shared" si="0"/>
         <v>2.0095248455825649E-3</v>
       </c>
       <c r="N6" s="7">
-        <f>(G13-G6)/G6</f>
+        <f t="shared" si="0"/>
         <v>0.3354838709677419</v>
       </c>
       <c r="O6" s="7">
-        <f>(H13-H6)/H6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10756,7 +10852,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -10812,27 +10908,27 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="J10" s="5">
-        <f>(C17-C10)/C10</f>
+        <f t="shared" ref="J10:O13" si="1">(C17-C10)/C10</f>
         <v>2.5684276956364949</v>
       </c>
       <c r="K10" s="5">
-        <f>(D17-D10)/D10</f>
+        <f t="shared" si="1"/>
         <v>0.83277591973244169</v>
       </c>
       <c r="L10" s="5">
-        <f>(E17-E10)/E10</f>
+        <f t="shared" si="1"/>
         <v>1.8399164451196304</v>
       </c>
       <c r="M10" s="5">
-        <f>(F17-F10)/F10</f>
+        <f t="shared" si="1"/>
         <v>0.4880701754385966</v>
       </c>
       <c r="N10" s="5">
-        <f>(G17-G10)/G10</f>
+        <f t="shared" si="1"/>
         <v>1.0099009900990099</v>
       </c>
       <c r="O10" s="5">
-        <f>(H17-H10)/H10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10863,27 +10959,27 @@
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="J11" s="5">
-        <f>(C18-C11)/C11</f>
+        <f t="shared" si="1"/>
         <v>2.1279103190572002</v>
       </c>
       <c r="K11" s="5">
-        <f>(D18-D11)/D11</f>
+        <f t="shared" si="1"/>
         <v>3.4549180327868849</v>
       </c>
       <c r="L11" s="5">
-        <f>(E18-E11)/E11</f>
+        <f t="shared" si="1"/>
         <v>3.8935423503765602E-2</v>
       </c>
       <c r="M11" s="5">
-        <f>(F18-F11)/F11</f>
+        <f t="shared" si="1"/>
         <v>-7.6119275332422335E-3</v>
       </c>
       <c r="N11" s="5">
-        <f>(G18-G11)/G11</f>
+        <f t="shared" si="1"/>
         <v>0.30113636363636359</v>
       </c>
       <c r="O11" s="5">
-        <f>(H18-H11)/H11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10914,27 +11010,27 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="J12" s="5">
-        <f>(C19-C12)/C12</f>
+        <f t="shared" si="1"/>
         <v>1.0334790209790214</v>
       </c>
       <c r="K12" s="5">
-        <f>(D19-D12)/D12</f>
+        <f t="shared" si="1"/>
         <v>2.5338983050847443</v>
       </c>
       <c r="L12" s="5">
-        <f>(E19-E12)/E12</f>
+        <f t="shared" si="1"/>
         <v>-5.4584793026063325E-2</v>
       </c>
       <c r="M12" s="5">
-        <f>(F19-F12)/F12</f>
+        <f t="shared" si="1"/>
         <v>1.5648556845222834E-2</v>
       </c>
       <c r="N12" s="5">
-        <f>(G19-G12)/G12</f>
+        <f t="shared" si="1"/>
         <v>0.48507462686567165</v>
       </c>
       <c r="O12" s="5">
-        <f>(H19-H12)/H12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10965,27 +11061,27 @@
         <v>2.3439999999999999E-2</v>
       </c>
       <c r="J13" s="5">
-        <f>(C20-C13)/C13</f>
+        <f t="shared" si="1"/>
         <v>1.2709286988905268</v>
       </c>
       <c r="K13" s="5">
-        <f>(D20-D13)/D13</f>
+        <f t="shared" si="1"/>
         <v>2.9121338912133883</v>
       </c>
       <c r="L13" s="5">
-        <f>(E20-E13)/E13</f>
+        <f t="shared" si="1"/>
         <v>-1.1430434295377854E-2</v>
       </c>
       <c r="M13" s="5">
-        <f>(F20-F13)/F13</f>
+        <f t="shared" si="1"/>
         <v>4.2064121548064298E-2</v>
       </c>
       <c r="N13" s="5">
-        <f>(G20-G13)/G13</f>
+        <f t="shared" si="1"/>
         <v>0.28019323671497581</v>
       </c>
       <c r="O13" s="5">
-        <f>(H20-H13)/H13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11008,7 +11104,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -11064,27 +11160,27 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="J17" s="7">
-        <f>(C24-C17)/C17</f>
+        <f t="shared" ref="J17:O17" si="2">(C24-C17)/C17</f>
         <v>5.0680882241479416E-2</v>
       </c>
       <c r="K17" s="7">
-        <f>(D24-D17)/D17</f>
+        <f t="shared" si="2"/>
         <v>0.27372262773722622</v>
       </c>
       <c r="L17" s="7">
-        <f>(E24-E17)/E17</f>
+        <f t="shared" si="2"/>
         <v>-9.1140086927449848E-2</v>
       </c>
       <c r="M17" s="7">
-        <f>(F24-F17)/F17</f>
+        <f t="shared" si="2"/>
         <v>4.0084885640179202E-2</v>
       </c>
       <c r="N17" s="7">
-        <f>(G24-G17)/G17</f>
+        <f t="shared" si="2"/>
         <v>-8.8669950738916245E-2</v>
       </c>
       <c r="O17" s="7">
-        <f>(H24-H17)/H17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11115,27 +11211,27 @@
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" ref="J18:O18" si="0">(C25-C18)/C18</f>
+        <f t="shared" ref="J18:O18" si="3">(C25-C18)/C18</f>
         <v>0.61633890828891769</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.3367065317387305</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6999317681247514E-3</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0918713942429559E-2</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.34934497816593885</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11166,27 +11262,27 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" ref="J19:O19" si="1">(C26-C19)/C19</f>
+        <f t="shared" ref="J19:O19" si="4">(C26-C19)/C19</f>
         <v>2.0792675063405399</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4940047961630691</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.14108132086797881</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.17806949300568914</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.78894472361809032</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11217,27 +11313,27 @@
         <v>2.3439999999999999E-2</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" ref="J20:O20" si="2">(C27-C20)/C20</f>
+        <f t="shared" ref="J20:O20" si="5">(C27-C20)/C20</f>
         <v>1.9736248718824734</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2780748663101607</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4249419387356561E-2</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13072116734242584</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.91320754716981145</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11260,7 +11356,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
@@ -11316,27 +11412,27 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" ref="J24:O24" si="3">(C31-C24)/C24</f>
+        <f t="shared" ref="J24:O24" si="6">(C31-C24)/C24</f>
         <v>2.2263688171784453</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1633237822349576</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4262801648028325</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.81160734527317524</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1783783783783788</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.064690026954183E-2</v>
       </c>
     </row>
@@ -11367,27 +11463,27 @@
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" ref="J25:J27" si="4">(C32-C25)/C25</f>
+        <f t="shared" ref="J25:J27" si="7">(C32-C25)/C25</f>
         <v>3.8980612883051915</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" ref="K25:K27" si="5">(D32-D25)/D25</f>
+        <f t="shared" ref="K25:K27" si="8">(D32-D25)/D25</f>
         <v>4.8093599449415025</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" ref="L25:L27" si="6">(E32-E25)/E25</f>
+        <f t="shared" ref="L25:L27" si="9">(E32-E25)/E25</f>
         <v>0.12195611660865291</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" ref="M25:M27" si="7">(F32-F25)/F25</f>
+        <f t="shared" ref="M25:M27" si="10">(F32-F25)/F25</f>
         <v>0.18295990873070248</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" ref="N25:N27" si="8">(G32-G25)/G25</f>
+        <f t="shared" ref="N25:N27" si="11">(G32-G25)/G25</f>
         <v>1.3495145631067962</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" ref="O25:O27" si="9">(H32-H25)/H25</f>
+        <f t="shared" ref="O25:O27" si="12">(H32-H25)/H25</f>
         <v>0.2893772893772894</v>
       </c>
     </row>
@@ -11418,27 +11514,27 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0866220875853312</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6072115384615397</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.11080750330831433</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.4856601396159396E-2</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5674157303370786</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.15017064846416386</v>
       </c>
     </row>
@@ -11469,27 +11565,27 @@
         <v>2.3439999999999999E-2</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3915186470277359</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6568075117370893</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.13009711046738684</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.8801861246051061E-2</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8520710059171599</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.42064846416382273</v>
       </c>
     </row>
@@ -11512,7 +11608,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -11568,27 +11664,27 @@
         <v>7.8700000000000006E-2</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:O31" si="10">(C38-C31)/C31</f>
+        <f t="shared" ref="J31:O31" si="13">(C38-C31)/C31</f>
         <v>-1.3713433948201953E-2</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79337748344370795</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-6.0017178441055925E-2</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.4652734326117438E-2</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.28231292517006801</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.1766200762388667E-2</v>
       </c>
     </row>
@@ -11619,27 +11715,27 @@
         <v>3.5200000000000002E-2</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:J34" si="11">(C39-C32)/C32</f>
+        <f t="shared" ref="J32:J34" si="14">(C39-C32)/C32</f>
         <v>-0.46059290556226212</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" ref="K32:K34" si="12">(D39-D32)/D32</f>
+        <f t="shared" ref="K32:K34" si="15">(D39-D32)/D32</f>
         <v>-0.49046321525885572</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" ref="L32:L34" si="13">(E39-E32)/E32</f>
+        <f t="shared" ref="L32:L34" si="16">(E39-E32)/E32</f>
         <v>5.0203565364494093E-3</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32:M34" si="14">(F39-F32)/F32</f>
+        <f t="shared" ref="M32:M34" si="17">(F39-F32)/F32</f>
         <v>-5.8585308853419584E-3</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N34" si="15">(G39-G32)/G32</f>
+        <f t="shared" ref="N32:N34" si="18">(G39-G32)/G32</f>
         <v>-0.2314049586776859</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:O34" si="16">(H39-H32)/H32</f>
+        <f t="shared" ref="O32:O34" si="19">(H39-H32)/H32</f>
         <v>-2.2727272727272787E-2</v>
       </c>
     </row>
@@ -11670,27 +11766,27 @@
         <v>6.7400000000000002E-2</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.1481610463854115</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.12968146074903383</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-4.3596716225111451E-2</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-3.2563800607816147E-3</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-6.4551422319474708E-2</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.4836795252225532E-2</v>
       </c>
     </row>
@@ -11721,27 +11817,27 @@
         <v>3.3300000000000003E-2</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.23983793543841117</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.15008345102067028</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.3442059043728556E-3</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-3.3236863525362014E-3</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.20954356846473032</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-6.0060060060060108E-2</v>
       </c>
     </row>
@@ -11764,7 +11860,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
@@ -11820,27 +11916,27 @@
         <v>8.1199999999999994E-2</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" ref="J35:O38" si="17">(C45-C38)/C38</f>
+        <f t="shared" ref="J38:O38" si="20">(C45-C38)/C38</f>
         <v>2.9211319756678131</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.23633677991137372</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9821130782410012</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.33573522227650132</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.3270142180094782</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.8029556650246316E-2</v>
       </c>
     </row>
@@ -11875,23 +11971,23 @@
         <v>8.2615609735103597</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" ref="J39:O39" si="18">(D46-D39)/D39</f>
+        <f t="shared" ref="K39:O39" si="21">(D46-D39)/D39</f>
         <v>5.7593582887700521</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.47652877485335782</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.3552256589435945E-2</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3.6630824372759849</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.40697674418604646</v>
       </c>
     </row>
@@ -11922,27 +12018,27 @@
         <v>6.6400000000000001E-2</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" ref="J40:O40" si="19">(C47-C40)/C40</f>
+        <f t="shared" ref="J40:O40" si="22">(C47-C40)/C40</f>
         <v>3.4024582547983755</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.1765696784073505</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.36279965430789779</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.122918173441787</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.1994152046783619</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.32981927710843378</v>
       </c>
     </row>
@@ -11973,27 +12069,27 @@
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" ref="J41:O41" si="20">(C48-C41)/C41</f>
+        <f t="shared" ref="J41:O41" si="23">(C48-C41)/C41</f>
         <v>5.005735473031689</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.82296072507553</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.37379778200100983</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14344048456250924</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.6229221347331584</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.77316293929712454</v>
       </c>
     </row>
@@ -12016,7 +12112,7 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -12076,23 +12172,23 @@
         <v>3.0456559318408204E-2</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" ref="K45" si="21">(D52-D45)/D45</f>
+        <f t="shared" ref="K45" si="24">(D52-D45)/D45</f>
         <v>0.91577060931899712</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" ref="L45" si="22">(E52-E45)/E45</f>
+        <f t="shared" ref="L45" si="25">(E52-E45)/E45</f>
         <v>-4.1634110094837778E-2</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" ref="M45" si="23">(F52-F45)/F45</f>
+        <f t="shared" ref="M45" si="26">(F52-F45)/F45</f>
         <v>7.8815031544299238E-2</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" ref="N45" si="24">(G52-G45)/G45</f>
+        <f t="shared" ref="N45" si="27">(G52-G45)/G45</f>
         <v>7.5622775800712055E-3</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" ref="O45" si="25">(H52-H45)/H45</f>
+        <f t="shared" ref="O45" si="28">(H52-H45)/H45</f>
         <v>0</v>
       </c>
     </row>
@@ -12127,23 +12223,23 @@
         <v>-4.9924023104411179E-2</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" ref="J46:O46" si="26">(D53-D46)/D46</f>
+        <f t="shared" ref="K46:O46" si="29">(D53-D46)/D46</f>
         <v>0.19406989543203138</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6.7408331454411718E-2</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.3733624373777401E-2</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-1.076095311298989E-2</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6.4049586776859471E-2</v>
       </c>
     </row>
@@ -12174,27 +12270,27 @@
         <v>8.8300000000000003E-2</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" ref="J47:O47" si="27">(C54-C47)/C47</f>
+        <f t="shared" ref="J47:O47" si="30">(C54-C47)/C47</f>
         <v>0.87771548069721794</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.90936090639093603</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.18741820069991733</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.7383260028499572E-2</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.42793482801838206</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.5107587768969328E-2</v>
       </c>
     </row>
@@ -12228,23 +12324,23 @@
         <v>20</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" ref="J48:O52" si="28">(D55-D48)/D48</f>
+        <f t="shared" ref="J48:O52" si="31">(D55-D48)/D48</f>
         <v>0.63210974693059374</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.19802395719877533</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6.4126303908862868E-3</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.99613619898575212</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4.1441441441441379E-2</v>
       </c>
     </row>
@@ -12267,7 +12363,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -12323,27 +12419,27 @@
         <v>8.5099999999999995E-2</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.8748959710645265</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.86248830682881161</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.1745945470677217</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.18306636155606462</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.0609271523178805</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.45710928319623978</v>
       </c>
     </row>
@@ -12378,23 +12474,23 @@
         <v>3.2938724453237533</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" ref="K53:K56" si="29">(D60-D53)/D53</f>
+        <f t="shared" ref="K53:K55" si="32">(D60-D53)/D53</f>
         <v>3.1612893933283392</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" ref="L53:L56" si="30">(E60-E53)/E53</f>
+        <f t="shared" ref="L53:L55" si="33">(E60-E53)/E53</f>
         <v>0.97011795780813825</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" ref="M53:M56" si="31">(F60-F53)/F53</f>
+        <f t="shared" ref="M53:M55" si="34">(F60-F53)/F53</f>
         <v>6.4426289034131973E-2</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" ref="N53:N56" si="32">(G60-G53)/G53</f>
+        <f t="shared" ref="N53:N55" si="35">(G60-G53)/G53</f>
         <v>3.2886557886557886</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" ref="O53:O56" si="33">(H60-H53)/H53</f>
+        <f t="shared" ref="O53:O55" si="36">(H60-H53)/H53</f>
         <v>1.4679911699779251</v>
       </c>
     </row>
@@ -12425,27 +12521,27 @@
         <v>9.1399999999999995E-2</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" ref="J53:J56" si="34">(C61-C54)/C54</f>
+        <f t="shared" ref="J54:J55" si="37">(C61-C54)/C54</f>
         <v>2.2963821946015521</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.6688174520874142</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.54361057905663879</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11.218359961386854</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.6662765749951238</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.9234135667396064</v>
       </c>
     </row>
@@ -12476,27 +12572,27 @@
         <v>5.7799999999999997E-2</v>
       </c>
       <c r="J55" s="5">
+        <f t="shared" si="37"/>
+        <v>2.860222201754917</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="32"/>
+        <v>3.0061792362310507</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="33"/>
+        <v>0.637457788890616</v>
+      </c>
+      <c r="M55" s="5">
         <f t="shared" si="34"/>
-        <v>2.860222201754917</v>
-      </c>
-      <c r="K55" s="5">
-        <f t="shared" si="29"/>
-        <v>3.0061792362310507</v>
-      </c>
-      <c r="L55" s="5">
-        <f t="shared" si="30"/>
-        <v>0.637457788890616</v>
-      </c>
-      <c r="M55" s="5">
-        <f t="shared" si="31"/>
         <v>11.581042394506559</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.9118074038228885</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.7698961937716264</v>
       </c>
     </row>
@@ -12519,7 +12615,7 @@
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
     </row>
-    <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
@@ -12705,54 +12801,268 @@
     <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="9">
+        <v>3.4840000000000001E-4</v>
+      </c>
+      <c r="D95" s="9">
+        <v>6.1680000000000003E-4</v>
+      </c>
+      <c r="E95" s="9">
+        <v>5.4129999999999998E-4</v>
+      </c>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="9">
+        <v>3.0279999999999999E-4</v>
+      </c>
+      <c r="D96" s="9">
+        <v>7.6130000000000002E-4</v>
+      </c>
+      <c r="E96" s="9">
+        <v>4.7340000000000001E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="9">
+        <v>3.2370000000000001E-4</v>
+      </c>
+      <c r="D97" s="9">
+        <v>1.1123999999999999E-3</v>
+      </c>
+      <c r="E97" s="9">
+        <v>7.3110000000000004E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="9">
+        <v>4.0640000000000001E-4</v>
+      </c>
+      <c r="D98" s="9">
+        <v>1.7562999999999999E-3</v>
+      </c>
+      <c r="E98" s="9">
+        <v>1.0164E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="9">
+        <v>3.6300000000000001E-5</v>
+      </c>
+      <c r="D103" s="9">
+        <v>5.8520000000000002E-5</v>
+      </c>
+      <c r="E103" s="9">
+        <v>4.3859999999999997E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="9">
+        <v>4.438E-4</v>
+      </c>
+      <c r="D104" s="9">
+        <v>8.8942000000000003E-4</v>
+      </c>
+      <c r="E104" s="9">
+        <v>5.9980999999999999E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="9">
+        <v>8.4632999999999996E-4</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1.7345100000000001E-3</v>
+      </c>
+      <c r="E105" s="9">
+        <v>1.1486300000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="9">
+        <v>8.5941000000000001E-4</v>
+      </c>
+      <c r="D106" s="9">
+        <v>1.8003699999999999E-3</v>
+      </c>
+      <c r="E106" s="9">
+        <v>1.1334699999999999E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="9">
+        <v>2.1330000000000001E-5</v>
+      </c>
+      <c r="D111" s="9">
+        <v>4.1730000000000002E-5</v>
+      </c>
+      <c r="E111" s="9">
+        <v>3.188E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="9">
+        <v>3.4870000000000003E-5</v>
+      </c>
+      <c r="D112" s="9">
+        <v>7.7579999999999999E-5</v>
+      </c>
+      <c r="E112" s="9">
+        <v>5.3650000000000003E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="9">
+        <v>7.1619999999999995E-5</v>
+      </c>
+      <c r="D113" s="9">
+        <v>1.6281999999999999E-4</v>
+      </c>
+      <c r="E113" s="9">
+        <v>1.1443E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="9">
+        <v>4.2790000000000002E-5</v>
+      </c>
+      <c r="D114" s="9">
+        <v>3.5194000000000002E-4</v>
+      </c>
+      <c r="E114" s="9">
+        <v>1.5483000000000001E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
